--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_18-18.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_18-18.xlsx
@@ -128,7 +128,7 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:1</t>
+    <t>8:0</t>
   </si>
   <si>
     <t>DOLO-D PLUS ORAL SUSP. 115 ML</t>
@@ -366,9 +366,6 @@
   </si>
   <si>
     <t>مناديل مبلله كبيره</t>
-  </si>
-  <si>
-    <t>8:0</t>
   </si>
   <si>
     <t>Sunday, 4 January, 2026 6:18 PM</t>
@@ -1490,11 +1487,11 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -3122,7 +3119,7 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
@@ -3137,7 +3134,7 @@
     </row>
     <row r="88" ht="25.5" customHeight="1">
       <c r="K88" s="11">
-        <v>5170.9399999999996</v>
+        <v>5186.9399999999996</v>
       </c>
       <c r="L88" s="11"/>
       <c r="M88" s="11"/>
@@ -3145,19 +3142,19 @@
     </row>
     <row r="89" ht="17.25" customHeight="1">
       <c t="s" r="A89" s="12">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c t="s" r="F89" s="13">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G89" s="13"/>
       <c r="H89" s="14"/>
       <c t="s" r="I89" s="15">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J89" s="15"/>
       <c r="K89" s="15"/>
